--- a/data/save_data/2024/stephens_jackson.xlsx
+++ b/data/save_data/2024/stephens_jackson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,16 @@
           <t>IP</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>I0</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>IF</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -497,6 +507,12 @@
       <c r="H2" t="n">
         <v>1</v>
       </c>
+      <c r="I2" t="n">
+        <v>9</v>
+      </c>
+      <c r="J2" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -525,6 +541,12 @@
       <c r="H3" t="n">
         <v>1</v>
       </c>
+      <c r="I3" t="n">
+        <v>9</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -553,6 +575,12 @@
       <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="I4" t="n">
+        <v>7</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -581,6 +609,12 @@
       <c r="H5" t="n">
         <v>1</v>
       </c>
+      <c r="I5" t="n">
+        <v>9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -609,6 +643,12 @@
       <c r="H6" t="n">
         <v>2</v>
       </c>
+      <c r="I6" t="n">
+        <v>7</v>
+      </c>
+      <c r="J6" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +677,12 @@
       <c r="H7" t="n">
         <v>3</v>
       </c>
+      <c r="I7" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -665,6 +711,12 @@
       <c r="H8" t="n">
         <v>2</v>
       </c>
+      <c r="I8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -692,6 +744,12 @@
       </c>
       <c r="H9" t="n">
         <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9</v>
+      </c>
+      <c r="J9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -720,6 +778,12 @@
       </c>
       <c r="H10" t="n">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7</v>
+      </c>
+      <c r="J10" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/save_data/2024/stephens_jackson.xlsx
+++ b/data/save_data/2024/stephens_jackson.xlsx
@@ -567,7 +567,7 @@
         <v>-6</v>
       </c>
       <c r="F4" t="n">
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
@@ -703,7 +703,7 @@
         <v>-2</v>
       </c>
       <c r="F8" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G8" t="n">
         <v>12</v>
@@ -771,7 +771,7 @@
         <v>3</v>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
         <v>7</v>

--- a/data/save_data/2024/stephens_jackson.xlsx
+++ b/data/save_data/2024/stephens_jackson.xlsx
@@ -502,7 +502,7 @@
         <v>-6</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -536,7 +536,7 @@
         <v>7</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -570,7 +570,7 @@
         <v>-9</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>2</v>
@@ -604,7 +604,7 @@
         <v>-3</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -672,7 +672,7 @@
         <v>-5</v>
       </c>
       <c r="G7" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
         <v>3</v>
@@ -706,7 +706,7 @@
         <v>-1</v>
       </c>
       <c r="G8" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
         <v>2</v>
@@ -774,7 +774,7 @@
         <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>

--- a/data/save_data/2024/stephens_jackson.xlsx
+++ b/data/save_data/2024/stephens_jackson.xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>dS0</t>
+          <t>dSF</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dSF</t>
+          <t>d2S</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -499,7 +499,7 @@
         <v>-6</v>
       </c>
       <c r="F2" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -533,7 +533,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -564,10 +564,10 @@
         <v>21</v>
       </c>
       <c r="E4" t="n">
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="F4" t="n">
-        <v>-9</v>
+        <v>-3</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>-3</v>
       </c>
       <c r="F5" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -635,7 +635,7 @@
         <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -669,7 +669,7 @@
         <v>-5</v>
       </c>
       <c r="F7" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>5</v>
@@ -700,10 +700,10 @@
         <v>37</v>
       </c>
       <c r="E8" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F8" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>3</v>
@@ -737,7 +737,7 @@
         <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -768,10 +768,10 @@
         <v>21</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
